--- a/app/invoices/templates/invoice_template.xlsx
+++ b/app/invoices/templates/invoice_template.xlsx
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="41">
   <si>
     <t xml:space="preserve">COMMERCIAL INVOICE</t>
   </si>
@@ -109,7 +109,7 @@
     <t xml:space="preserve">Kazarova Zhanna</t>
   </si>
   <si>
-    <t xml:space="preserve">Comapany Name</t>
+    <t xml:space="preserve">Company Name</t>
   </si>
   <si>
     <t xml:space="preserve">TALYAGLOBAL</t>
@@ -200,9 +200,6 @@
   </si>
   <si>
     <t xml:space="preserve">INV-2020-08-0017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Company Name</t>
   </si>
   <si>
     <t xml:space="preserve">83psc</t>
@@ -1391,7 +1388,7 @@
   <dimension ref="A3:E556"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.62109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3986,7 +3983,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="25" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B15" s="30" t="s">
         <v>10</v>
@@ -6427,7 +6424,7 @@
       <c r="B311" s="65"/>
       <c r="C311" s="69"/>
       <c r="D311" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E311" s="71"/>
     </row>

--- a/app/invoices/templates/invoice_template.xlsx
+++ b/app/invoices/templates/invoice_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="invoice" sheetId="1" state="visible" r:id="rId2"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="42">
   <si>
     <t xml:space="preserve">COMMERCIAL INVOICE</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t xml:space="preserve">Kazarova Zhanna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passport number</t>
   </si>
   <si>
     <t xml:space="preserve">Company Name</t>
@@ -1387,15 +1390,15 @@
   </sheetPr>
   <dimension ref="A3:E556"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.62109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="37.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="10.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="10.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="11.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="19.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="254" min="6" style="5" width="12.76"/>
@@ -1471,19 +1474,21 @@
       </c>
       <c r="E13" s="32"/>
     </row>
-    <row r="14" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="25"/>
       <c r="B14" s="26"/>
       <c r="C14" s="27"/>
-      <c r="D14" s="28"/>
+      <c r="D14" s="28" t="s">
+        <v>9</v>
+      </c>
       <c r="E14" s="29"/>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="31"/>
@@ -1498,14 +1503,14 @@
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C17" s="27"/>
       <c r="D17" s="31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E17" s="32"/>
     </row>
@@ -1519,7 +1524,7 @@
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="25"/>
       <c r="B19" s="30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="31"/>
@@ -1534,10 +1539,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C21" s="27"/>
       <c r="D21" s="31"/>
@@ -1552,17 +1557,17 @@
     </row>
     <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C23" s="27"/>
       <c r="D23" s="31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1574,14 +1579,14 @@
     </row>
     <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C25" s="36"/>
       <c r="D25" s="31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E25" s="37"/>
     </row>
@@ -1593,10 +1598,10 @@
     </row>
     <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" s="27"/>
       <c r="D27" s="31"/>
@@ -1612,19 +1617,19 @@
     <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="30" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="43" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B30" s="44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C30" s="44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D30" s="45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E30" s="46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3550,7 +3555,7 @@
     </row>
     <row r="306" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B306" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C306" s="58"/>
     </row>
@@ -3558,14 +3563,14 @@
     <row r="308" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="309" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A309" s="59" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B309" s="60" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C309" s="61"/>
       <c r="D309" s="62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E309" s="63"/>
     </row>
@@ -3581,16 +3586,16 @@
       <c r="B311" s="65"/>
       <c r="C311" s="69"/>
       <c r="D311" s="70" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E311" s="71"/>
     </row>
     <row r="312" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A312" s="64" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B312" s="72" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C312" s="69"/>
       <c r="D312" s="73"/>
@@ -3610,7 +3615,7 @@
     <row r="318" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="319" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C319" s="79" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D319" s="80"/>
       <c r="E319" s="81"/>
@@ -3863,14 +3868,14 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A31:A541" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A31:A541" type="list">
       <formula1>#ref!</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3885,17 +3890,17 @@
   </sheetPr>
   <dimension ref="A3:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.62109375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="37.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="12.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="15.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="18.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="18.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="5" width="12.76"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="7" min="7" style="5" width="12.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="257" min="8" style="5" width="12.76"/>
@@ -3922,7 +3927,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>2</v>
@@ -3974,19 +3979,21 @@
       </c>
       <c r="E13" s="32"/>
     </row>
-    <row r="14" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="25"/>
       <c r="B14" s="26"/>
       <c r="C14" s="27"/>
-      <c r="D14" s="28"/>
+      <c r="D14" s="28" t="s">
+        <v>9</v>
+      </c>
       <c r="E14" s="29"/>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="31"/>
@@ -4001,14 +4008,14 @@
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C17" s="27"/>
       <c r="D17" s="31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E17" s="32"/>
     </row>
@@ -4022,7 +4029,7 @@
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="25"/>
       <c r="B19" s="30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="31"/>
@@ -4037,10 +4044,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C21" s="27"/>
       <c r="D21" s="31"/>
@@ -4055,17 +4062,17 @@
     </row>
     <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C23" s="27"/>
       <c r="D23" s="31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4077,14 +4084,14 @@
     </row>
     <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C25" s="36"/>
       <c r="D25" s="31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E25" s="37"/>
     </row>
@@ -4096,10 +4103,10 @@
     </row>
     <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" s="27"/>
       <c r="D27" s="31"/>
@@ -4115,13 +4122,13 @@
     <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="30" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="43" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B30" s="44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C30" s="82" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D30" s="82"/>
       <c r="E30" s="82"/>
@@ -6401,14 +6408,14 @@
     <row r="308" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="309" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A309" s="59" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B309" s="60" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C309" s="61"/>
       <c r="D309" s="62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E309" s="63"/>
     </row>
@@ -6424,16 +6431,16 @@
       <c r="B311" s="65"/>
       <c r="C311" s="69"/>
       <c r="D311" s="70" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E311" s="71"/>
     </row>
     <row r="312" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A312" s="64" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B312" s="72" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C312" s="69"/>
       <c r="D312" s="73"/>
@@ -6453,7 +6460,7 @@
     <row r="318" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="319" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C319" s="79" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D319" s="80"/>
       <c r="E319" s="81"/>
@@ -6715,14 +6722,14 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A41:A55 A56:B65 A66:A541" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A41:A55 A56:B65 A66:A541" type="list">
       <formula1>#ref!</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
